--- a/cargar.xlsx
+++ b/cargar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DanielT\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5DD4CD-2F94-4E3F-8DAB-51E200AA2689}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B473FF51-7459-4A47-A85F-721EFF7B5831}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FA0CF131-3763-4AFE-8AA9-0993C2BD369D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>nombre</t>
   </si>
@@ -66,6 +66,18 @@
   </si>
   <si>
     <t>telefono</t>
+  </si>
+  <si>
+    <t>Eduardo</t>
+  </si>
+  <si>
+    <t>Gonzalez</t>
+  </si>
+  <si>
+    <t>Camilo</t>
+  </si>
+  <si>
+    <t>Astudillo</t>
   </si>
 </sst>
 </file>
@@ -417,13 +429,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F330A123-0E8E-4924-84AD-249B20C826E9}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -444,7 +459,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>569543245</v>
+        <v>943678321</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -455,7 +470,7 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>569543219</v>
+        <v>921765469</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -466,7 +481,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>569437832</v>
+        <v>943789231</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -477,7 +492,29 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>569346791</v>
+        <v>932789341</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>987967437</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>976547981</v>
       </c>
     </row>
   </sheetData>
